--- a/biology/Zoologie/Attila_(genre)/Attila_(genre).xlsx
+++ b/biology/Zoologie/Attila_(genre)/Attila_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attila est un genre de passereaux de la famille des Tyrannidae comprenant sept espèces.
-Leur nom a sans doute été attribué par René Primevère Lesson, qui initialement avait surnommé l'Attila à croupion jaune «Tyran olive», sa physionomie rappelant d'autant plus celle d'Attila le Hun qui était dépeint comme de petite stature avec une large poitrine, une grosse tête et un teint bistre[1].
+Leur nom a sans doute été attribué par René Primevère Lesson, qui initialement avait surnommé l'Attila à croupion jaune «Tyran olive», sa physionomie rappelant d'autant plus celle d'Attila le Hun qui était dépeint comme de petite stature avec une large poitrine, une grosse tête et un teint bistre.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence du Congrès ornithologique international (ordre phylogénique) :
 Attila à queue rousse - Attila phoenicurus Pelzeln, 1868
